--- a/Project/TEST_SCENARIOS.xlsx
+++ b/Project/TEST_SCENARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT SINGH\OneDrive\Desktop\TOPS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3DD1A-FDAE-437E-99AE-AD4A6409AB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E253FEA5-4114-47C7-A52D-164CF4EC5BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,7 +997,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.44140625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="54" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
